--- a/tabular/genus/tetra-refseqs-side-data.xlsx
+++ b/tabular/genus/tetra-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADBDCF1-0363-CD4B-B34D-20BC680E7586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BF3660-7847-2249-AF3E-16E0B27A0E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1300" yWindow="500" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="44">
   <si>
-    <t>accession-ID</t>
-  </si>
-  <si>
     <t>virus_name</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>DdPV</t>
+  </si>
+  <si>
+    <t>sequenceID</t>
   </si>
 </sst>
 </file>
@@ -2406,7 +2406,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="A1:L11"/>
+      <selection activeCell="F4" sqref="A1:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2424,75 +2424,75 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
@@ -2500,37 +2500,37 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -2538,37 +2538,37 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
       <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -2576,37 +2576,37 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
       <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
@@ -2614,37 +2614,37 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
@@ -2652,37 +2652,37 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -2690,37 +2690,37 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
       <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
@@ -2728,37 +2728,37 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
       <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
@@ -2766,37 +2766,37 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
       <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
@@ -2804,37 +2804,37 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
       <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>

--- a/tabular/genus/tetra-refseqs-side-data.xlsx
+++ b/tabular/genus/tetra-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BF3660-7847-2249-AF3E-16E0B27A0E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6922F7-A261-A444-8B3C-47FB897B0967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1300" yWindow="500" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2406,7 +2406,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="A1:L11"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/genus/tetra-refseqs-side-data.xlsx
+++ b/tabular/genus/tetra-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6922F7-A261-A444-8B3C-47FB897B0967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2058D58-9601-874D-9064-B175D14BA74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="500" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14960" yWindow="1440" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REFSET" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="46">
   <si>
     <t>virus_name</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>sequenceID</t>
+  </si>
+  <si>
+    <t>virus_subfamily</t>
+  </si>
+  <si>
+    <t>Parvovirinae</t>
   </si>
 </sst>
 </file>
@@ -2403,10 +2409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G4" sqref="A1:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2414,15 +2420,15 @@
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="19.5" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="4" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
+    <col min="12" max="12" width="19.5" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -2439,28 +2445,31 @@
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2477,11 +2486,11 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
@@ -2494,11 +2503,14 @@
       <c r="K2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="b">
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2515,11 +2527,11 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
       <c r="H3" t="s">
         <v>11</v>
       </c>
@@ -2532,11 +2544,14 @@
       <c r="K3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" t="b">
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2553,11 +2568,11 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
       <c r="H4" t="s">
         <v>11</v>
       </c>
@@ -2570,11 +2585,14 @@
       <c r="K4" t="s">
         <v>11</v>
       </c>
-      <c r="L4" t="b">
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -2591,11 +2609,11 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
       <c r="H5" t="s">
         <v>11</v>
       </c>
@@ -2608,11 +2626,14 @@
       <c r="K5" t="s">
         <v>11</v>
       </c>
-      <c r="L5" t="b">
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2629,11 +2650,11 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
       <c r="H6" t="s">
         <v>11</v>
       </c>
@@ -2646,11 +2667,14 @@
       <c r="K6" t="s">
         <v>11</v>
       </c>
-      <c r="L6" t="b">
+      <c r="L6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -2667,11 +2691,11 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
       <c r="H7" t="s">
         <v>11</v>
       </c>
@@ -2684,11 +2708,14 @@
       <c r="K7" t="s">
         <v>11</v>
       </c>
-      <c r="L7" t="b">
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2705,11 +2732,11 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
       <c r="H8" t="s">
         <v>11</v>
       </c>
@@ -2722,11 +2749,14 @@
       <c r="K8" t="s">
         <v>11</v>
       </c>
-      <c r="L8" t="b">
+      <c r="L8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -2743,11 +2773,11 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
         <v>12</v>
       </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
       <c r="H9" t="s">
         <v>11</v>
       </c>
@@ -2760,11 +2790,14 @@
       <c r="K9" t="s">
         <v>11</v>
       </c>
-      <c r="L9" t="b">
+      <c r="L9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -2781,11 +2814,11 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s">
         <v>12</v>
       </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
       <c r="H10" t="s">
         <v>11</v>
       </c>
@@ -2798,11 +2831,14 @@
       <c r="K10" t="s">
         <v>11</v>
       </c>
-      <c r="L10" t="b">
+      <c r="L10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -2819,11 +2855,11 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" t="s">
         <v>12</v>
       </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
       <c r="H11" t="s">
         <v>11</v>
       </c>
@@ -2836,13 +2872,16 @@
       <c r="K11" t="s">
         <v>11</v>
       </c>
-      <c r="L11" t="b">
+      <c r="L11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L16">
-    <sortCondition ref="H2:H16"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M16">
+    <sortCondition ref="I2:I16"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/tabular/genus/tetra-refseqs-side-data.xlsx
+++ b/tabular/genus/tetra-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2058D58-9601-874D-9064-B175D14BA74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A201AC0D-3196-294B-A868-8484A3DB75D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14960" yWindow="1440" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,9 +75,6 @@
     <t>NC_016744</t>
   </si>
   <si>
-    <t>Eidolon_helvum_parvovirus </t>
-  </si>
-  <si>
     <t>JF504699</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>Chimpanzee_parvovirus_4</t>
   </si>
   <si>
-    <t>AY622943</t>
-  </si>
-  <si>
     <t>Human_parvovirus_4_G1</t>
   </si>
   <si>
@@ -123,9 +117,6 @@
     <t>GU938300</t>
   </si>
   <si>
-    <t>Porcine_Cn</t>
-  </si>
-  <si>
     <t>PorcineTetraPV</t>
   </si>
   <si>
@@ -163,6 +154,15 @@
   </si>
   <si>
     <t>Parvovirinae</t>
+  </si>
+  <si>
+    <t>NC_007018</t>
+  </si>
+  <si>
+    <t>Eidolon_helvum_parvovirus 1</t>
+  </si>
+  <si>
+    <t>Porcine tetraparvovirus</t>
   </si>
 </sst>
 </file>
@@ -2412,7 +2412,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="A1:M11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2430,7 +2430,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -2474,7 +2474,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -2486,7 +2486,7 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -2515,10 +2515,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -2527,7 +2527,7 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -2553,14 +2553,14 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -2594,14 +2594,14 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
@@ -2635,14 +2635,14 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -2676,14 +2676,14 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -2717,13 +2717,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -2732,7 +2732,7 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -2758,13 +2758,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -2773,7 +2773,7 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -2799,22 +2799,22 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
         <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>45</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
@@ -2840,13 +2840,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -2855,7 +2855,7 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>

--- a/tabular/genus/tetra-refseqs-side-data.xlsx
+++ b/tabular/genus/tetra-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A201AC0D-3196-294B-A868-8484A3DB75D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBD0C1B-CA2E-104C-B058-A37359461B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14960" yWindow="1440" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2412,7 +2412,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/genus/tetra-refseqs-side-data.xlsx
+++ b/tabular/genus/tetra-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBD0C1B-CA2E-104C-B058-A37359461B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC7555C-BDC9-D54A-955F-720C61E3F7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14960" yWindow="1440" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,9 +132,6 @@
     <t>PorcineHoko1</t>
   </si>
   <si>
-    <t>CHhimpPV4</t>
-  </si>
-  <si>
     <t>HumanPV4</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>Porcine tetraparvovirus</t>
+  </si>
+  <si>
+    <t>ChimpPV4</t>
   </si>
 </sst>
 </file>
@@ -2412,7 +2412,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="B10" sqref="A1:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2430,7 +2430,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -2486,7 +2486,7 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -2515,10 +2515,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -2527,7 +2527,7 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -2568,7 +2568,7 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -2609,7 +2609,7 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
@@ -2650,7 +2650,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -2679,7 +2679,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -2691,7 +2691,7 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -2717,10 +2717,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
@@ -2732,7 +2732,7 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -2761,7 +2761,7 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
@@ -2773,7 +2773,7 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -2802,7 +2802,7 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -2814,7 +2814,7 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
@@ -2846,7 +2846,7 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -2855,7 +2855,7 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>

--- a/tabular/genus/tetra-refseqs-side-data.xlsx
+++ b/tabular/genus/tetra-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNA/Parvovirus-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC7555C-BDC9-D54A-955F-720C61E3F7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817E5CF1-F269-1344-8367-FC8813D461DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14960" yWindow="1440" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2412,7 +2412,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="A1:M11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
